--- a/poc/Project_plan_local_gtp.xlsx
+++ b/poc/Project_plan_local_gtp.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\app\rag-policies\poc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB5687C9-79FD-4907-81A1-FC2A52A41D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E6259C-3834-421F-9C46-A50789B15C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F1E390A2-6E39-4801-814A-AB9A00E28921}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="Хөдөлмөрийн дотоод журам" sheetId="2" r:id="rId2"/>
+    <sheet name="МТ-ы үйл ажиллагаа" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Гол архитектур (өдөр тутмын үзэл)</t>
   </si>
@@ -339,12 +340,93 @@
       <t xml:space="preserve"> — prod: Use ingress (nginx/traefik), enable horizontal pod autoscaling, secrets (Kubernetes Secrets or Vault) for API keys, network policies to restrict access.</t>
     </r>
   </si>
+  <si>
+    <t>Мэдээллийн технологийн үйл ажиллагааны журмаас асууж болох 20 асуултыг бичиж өгнө үү</t>
+  </si>
+  <si>
+    <t>Тайлбарласан: Information Technology Operations Procedure-ийн 20 асуулт</t>
+  </si>
+  <si>
+    <t>Мэдээллийн технологийн үйл ажиллагааны журмыг хянаж, сайжруулах зорилгоор доорх 20 асуултыг бичиж өгье. Эдгээр асуултууд нь журмын үндсэн бүрэлдэхүүн хэсгүүдийг хамрах бөгөөд танай байгууллагын онцлогт тохируулан өөрчилж болно.</t>
+  </si>
+  <si>
+    <t>Аюулгүй байдал ба эрсдэл</t>
+  </si>
+  <si>
+    <t>1. Эрсдэлийн үнэлгээ, удирдлагын журам хэрхэн зохицуулагддаг вэ? (Жишээ нь, эрсдэлийг хэрхэн тодорхойлох, үнэлэх, бууруулах, хянах талаар)</t>
+  </si>
+  <si>
+    <t>2. Системийн нэвтрэх эрх, хэрэглэгчийн эрхийн удирдлага ямар журмаар хийгддэг вэ? (Жишээ нь, шинэ хэрэглэгч нэмэх, хуучин хэрэглэгчийг хасах, эрхийг шинэчлэх гэх мэт)</t>
+  </si>
+  <si>
+    <t>3. Дата болон системийн нөөцлөлт (backup) ямар давтамжтай, ямар журмаар хийгддэг вэ? (Жишээ нь, нөөцлөлтийн төрөл, хадгалах хугацаа, сэргээх туршилт)</t>
+  </si>
+  <si>
+    <t>4. Аюулгүй байдлын үйл явдал (жишээ нь, кибер халдлага, мэдээллийн алдагдал) гарсан тохиолдолд ямар алхам, журам хэрэгждэг вэ? (Хариу үйлдэл үзүүлэх төлөвлөгөө)</t>
+  </si>
+  <si>
+    <t>5. Нууц үг, системийн нэвтрэлтийн мэдээллийн менежмент хэрхэн хийгддэг вэ? (Жишээ нь, нууц үгийн нарийн төвөгтэй байдал, шинэчлэлт)</t>
+  </si>
+  <si>
+    <t>Систем ба дэд бүтэц</t>
+  </si>
+  <si>
+    <t>6. Програм хангамж, системийн шинэчлэлт (update/patch management) ямар журмаар хийгддэг вэ? (Жишээ нь, туршилт, нэвтрүүлэлт, буцаах журам)</t>
+  </si>
+  <si>
+    <t>7. Сервер болон сүлжээний төхөөрөмжүүдийн хэвийн ажиллагааг хэрхэн хянадаг вэ? (Monitoring tools and procedures)</t>
+  </si>
+  <si>
+    <t>8. Системийн хэрэгцээгүй (decommission) болсон төхөөрөмж, мэдээллийг устгах, зайлуулах журам бий юу?</t>
+  </si>
+  <si>
+    <t>9. Шинэ програм хангамж, төхөөрөмж нэвтрүүлэх үйл явц ямар байдаг вэ? (Жишээ нь, худалдан авалт, суурилуулалт, туршилт)</t>
+  </si>
+  <si>
+    <t>10. Ажлын тасалдлыг (downtime) хэрхэн хэмжиж, бууруулдаг вэ? (Жишээ нь, service level agreement - SLA)</t>
+  </si>
+  <si>
+    <t>Ажилтан болон хэрэглэгчийн дэмжлэг</t>
+  </si>
+  <si>
+    <t>11. Асуудал гарсан тохиолдолд хэрэглэгч хэнд, хэрхэн хандах ёстой вэ? (Help desk/IT support)</t>
+  </si>
+  <si>
+    <t>12. Асуудлын тайлан, шийдвэрлэлтийн үйл явц хэрхэн хийгддэг вэ? (Incident management)</t>
+  </si>
+  <si>
+    <t>13. Ажилтнуудад мэдээллийн аюулгүй байдлын талаарх сургалт, мэдээллийг ямар давтамжтай өгдөг вэ?</t>
+  </si>
+  <si>
+    <t>14. IT хэрэгслийн (компьютер, утас гэх мэт) эвдрэл, гэмтэл гарсан үед засвар, солих журам хэрхэн зохицуулагддаг вэ?</t>
+  </si>
+  <si>
+    <t>15. Байгууллагын IT бодлого, журмыг шинэ ажилтнуудад хэрхэн танилцуулдаг вэ?</t>
+  </si>
+  <si>
+    <t>Журмын удирдлага ба баримтжуулалт</t>
+  </si>
+  <si>
+    <t>16. Мэдээллийн технологийн үйл ажиллагааны журам хэр давтамжтай шинэчлэгдэж, хянан батлагддаг вэ?</t>
+  </si>
+  <si>
+    <t>17. Бүх журам, бодлогыг хаанаас олж, хадгалдаг вэ?</t>
+  </si>
+  <si>
+    <t>18. IT-ийн үйл ажиллагааны гол үзүүлэлтүүд (KPIs) юу вэ, тэдгээрийг хэрхэн хэмжиж, тайлагнадаг вэ?</t>
+  </si>
+  <si>
+    <t>19. Аудит, шалгалт хийх журам бий юу? (Дотоод/гадаад аудит)</t>
+  </si>
+  <si>
+    <t>20. Журам зөрчсөн тохиолдолд ямар үр дагавар, арга хэмжээ авдаг вэ?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +454,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -393,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -407,6 +497,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,7 +841,7 @@
   <dimension ref="A1:A157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1461,4 +1557,214 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFC21A4-1B28-445A-87F1-05947E81457C}">
+  <dimension ref="A1:A61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/poc/Project_plan_local_gtp.xlsx
+++ b/poc/Project_plan_local_gtp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\app\rag-policies\poc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E6259C-3834-421F-9C46-A50789B15C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84107F2-5DC1-4217-85A3-CC531B5E8CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F1E390A2-6E39-4801-814A-AB9A00E28921}"/>
   </bookViews>
@@ -38,33 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Гол архитектур (өдөр тутмын үзэл)</t>
-  </si>
-  <si>
-    <t>1. Frontend (UI) — React + TypeScript + Tailwind CSS эсвэл Chakra UI. Илүү хурдан: Vite + React.</t>
-  </si>
-  <si>
-    <t>2. Backend API — FastAPI (Python) эсвэл Flask. Streaming (SSE/WebSocket) дэмжих.</t>
-  </si>
-  <si>
-    <t>3. LLM прокси — Gemini (external) эсвэл дотоод/on-prem LLM. API түлхүүрийг зөвхөн backend дээр хадгална.</t>
-  </si>
-  <si>
-    <t>4. Vector DB — Qdrant (RAG/semantic search) для embeddings.</t>
-  </si>
-  <si>
-    <t>5. Auth/SSO — LDAP/AD/OAuth2/Internal SSO (банк дотор бол LDAP/AD). RBAC.</t>
-  </si>
-  <si>
-    <t>6. Reverse proxy &amp; TLS — internal nginx / Traefik, mTLS эсвэл сертификат (Let's Encrypt internal CA эсвэл internal CA).</t>
-  </si>
-  <si>
-    <t>7. Containerization — Docker Compose (энгийн) эсвэл Kubernetes (prod).</t>
-  </si>
-  <si>
-    <t>8. Мониторинг — Prometheus + Grafana, лог — ELK/EFK.</t>
   </si>
   <si>
     <t>UX / UI функцууд (ChatGPT мэт)</t>
@@ -420,6 +396,39 @@
   </si>
   <si>
     <t>20. Журам зөрчсөн тохиолдолд ямар үр дагавар, арга хэмжээ авдаг вэ?</t>
+  </si>
+  <si>
+    <t>Frontend (UI) — React + TypeScript + Tailwind CSS эсвэл Chakra UI. Илүү хурдан: Vite + React.</t>
+  </si>
+  <si>
+    <t>Backend API — FastAPI (Python) эсвэл Flask. Streaming (SSE/WebSocket) дэмжих.</t>
+  </si>
+  <si>
+    <t>LLM прокси — Gemini (external) эсвэл дотоод/on-prem LLM. API түлхүүрийг зөвхөн backend дээр хадгална.</t>
+  </si>
+  <si>
+    <t>Vector DB — Qdrant (RAG/semantic search) для embeddings.</t>
+  </si>
+  <si>
+    <t>Auth/SSO — LDAP/AD/OAuth2/Internal SSO (банк дотор бол LDAP/AD). RBAC.</t>
+  </si>
+  <si>
+    <t>Reverse proxy &amp; TLS — internal nginx / Traefik, mTLS эсвэл сертификат (Let's Encrypt internal CA эсвэл internal CA).</t>
+  </si>
+  <si>
+    <t>Containerization — Docker Compose (энгийн) эсвэл Kubernetes (prod).</t>
+  </si>
+  <si>
+    <t>Мониторинг — Prometheus + Grafana, лог — ELK/EFK.</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>2025.09.03</t>
+  </si>
+  <si>
+    <t>End Data</t>
   </si>
 </sst>
 </file>
@@ -483,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -503,6 +512,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,593 +860,622 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D9D9D1-96D5-4829-BD75-7FB8F1690B31}">
-  <dimension ref="A1:A157"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="175.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="88" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="C3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="C4" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="C5" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="C6" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="C7" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="C8" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="C9" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="C10" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="34" spans="3:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="42" spans="3:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="58" spans="3:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="68" spans="3:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C68" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+    <row r="76" spans="3:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C76" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C78" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C80" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C82" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+    <row r="90" spans="3:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C90" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+    <row r="98" spans="3:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C98" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="110" spans="3:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C110" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="124" spans="3:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C124" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="3"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="3"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="3"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" s="5"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="3"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141" s="5"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="3"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="5"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="3"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="3"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="3"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="3"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="3"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="3"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="3"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="3"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="3"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="3"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="3"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5" t="s">
-        <v>85</v>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149" s="5"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +1499,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1456,7 +1507,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1464,12 +1515,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -1477,7 +1528,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -1485,7 +1536,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -1493,12 +1544,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -1506,7 +1557,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -1514,7 +1565,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -1522,12 +1573,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
@@ -1535,7 +1586,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -1543,7 +1594,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
@@ -1551,7 +1602,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1571,22 +1622,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1594,7 +1645,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1602,7 +1653,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -1610,7 +1661,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1618,7 +1669,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1626,12 +1677,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -1639,7 +1690,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -1647,7 +1698,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -1655,7 +1706,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -1663,7 +1714,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -1671,12 +1722,12 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -1684,7 +1735,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
@@ -1692,7 +1743,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -1700,7 +1751,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
@@ -1708,7 +1759,7 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
@@ -1716,12 +1767,12 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
@@ -1729,7 +1780,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -1737,7 +1788,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -1745,7 +1796,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -1753,7 +1804,7 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
@@ -1761,7 +1812,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/poc/Project_plan_local_gtp.xlsx
+++ b/poc/Project_plan_local_gtp.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\app\rag-policies\poc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84107F2-5DC1-4217-85A3-CC531B5E8CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C306605D-BD24-4A59-A507-8F70D9E92339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F1E390A2-6E39-4801-814A-AB9A00E28921}"/>
+    <workbookView xWindow="28965" yWindow="1860" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{F1E390A2-6E39-4801-814A-AB9A00E28921}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
-    <sheet name="Хөдөлмөрийн дотоод журам" sheetId="2" r:id="rId2"/>
-    <sheet name="МТ-ы үйл ажиллагаа" sheetId="3" r:id="rId3"/>
+    <sheet name="Комплайнс хариуцсан нэгжийн үаж" sheetId="4" r:id="rId2"/>
+    <sheet name="Хөдөлмөрийн дотоод журам" sheetId="2" r:id="rId3"/>
+    <sheet name="МТ-ы үйл ажиллагаа" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Гол архитектур (өдөр тутмын үзэл)</t>
   </si>
@@ -429,6 +430,90 @@
   </si>
   <si>
     <t>End Data</t>
+  </si>
+  <si>
+    <t>. Ерөнхий ойлголт</t>
+  </si>
+  <si>
+    <t>Комплаенс хариуцсан нэгжийн үндсэн зорилго юу вэ?</t>
+  </si>
+  <si>
+    <t>“Комплаенс” гэж яг юуг хэлдэг вэ?</t>
+  </si>
+  <si>
+    <t>Комплаенсын соёл гэж юу вэ, ажилтан бүр яагаад мөрдөх ёстой вэ?</t>
+  </si>
+  <si>
+    <t>Комплаенсын эрсдэл гэж ямар эрсдэлийг хэлдэг вэ?</t>
+  </si>
+  <si>
+    <t>2. Чиг үүрэг, хамрах хүрээ</t>
+  </si>
+  <si>
+    <t>Комплаенс хариуцсан нэгж ямар чиг үүрэгтэй вэ?</t>
+  </si>
+  <si>
+    <t>Комплаенсийн бодлого, журамтай нийцүүлэн ажиллахад ажилтнуудын оролцоо ямар байх вэ?</t>
+  </si>
+  <si>
+    <t>Мөнгө угаах болон терроризмыг санхүүжүүлэхтэй тэмцэх (МУТСТ) үйл ажиллагааг ямар нэгж хариуцдаг вэ?</t>
+  </si>
+  <si>
+    <t>НҮБ болон олон улсын хориг арга хэмжээг хэрхэн хэрэгжүүлдэг вэ?</t>
+  </si>
+  <si>
+    <t>3. Ажилтны үүрэг, оролцоо</t>
+  </si>
+  <si>
+    <t>Ажилтнууд өдөр тутмын үйл ажиллагаандаа ямар комплаенсын зарчмуудыг мөрдөх ёстой вэ?</t>
+  </si>
+  <si>
+    <t>Ашиг сонирхлын зөрчил илэрвэл ажилтан яах ёстой вэ?</t>
+  </si>
+  <si>
+    <t>Харилцагчийн мэдээллийн нууцлалыг хамгаалахад ямар шаардлага тавигддаг вэ?</t>
+  </si>
+  <si>
+    <t>Зөрчил, дутагдал илрүүлсэн бол хаана мэдээлэх ёстой вэ?</t>
+  </si>
+  <si>
+    <t>4. Эрсдэлийн удирдлага</t>
+  </si>
+  <si>
+    <t>Комплаенсын эрсдэлийг хэрхэн үнэлдэг вэ?</t>
+  </si>
+  <si>
+    <t>Шинэ бүтээгдэхүүн, үйлчилгээ нэвтрүүлэх үед комплаенсын ямар үнэлгээ, санал шаардлагатай вэ?</t>
+  </si>
+  <si>
+    <t>Сэжигтэй гүйлгээг илрүүлсэн тохиолдолд яах ёстой вэ?</t>
+  </si>
+  <si>
+    <t>Өндөр эрсдэлтэй харилцагч болон улс оронтой холбоотой гүйлгээг хэрхэн хянадаг вэ?</t>
+  </si>
+  <si>
+    <t>5. Тайлагнал, хяналт</t>
+  </si>
+  <si>
+    <t>Комплаенсийн нэгж хэнд, хэдэн удаа тайлагнадаг вэ?</t>
+  </si>
+  <si>
+    <t>МУТСТ-тай холбоотой тайланг хаана, ямар хугацаанд хүргүүлдэг вэ?</t>
+  </si>
+  <si>
+    <t>Дотоод аудит комплаенсын үйл ажиллагаанд ямар хяналт тавьдаг вэ?</t>
+  </si>
+  <si>
+    <t>6. Хариуцлага</t>
+  </si>
+  <si>
+    <t>Комплаенсын журмыг зөрчвөл ямар хариуцлага хүлээх вэ?</t>
+  </si>
+  <si>
+    <t>Худал тайлан, буруу мэдээлэл хүргүүлбэл ямар үр дагавартай вэ?</t>
+  </si>
+  <si>
+    <t>Хөдөлмөрийн сахилгын шийтгэл хуулийн бусад хариуцлагаас чөлөөлөх үү?</t>
   </si>
 </sst>
 </file>
@@ -492,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -525,6 +610,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D9D9D1-96D5-4829-BD75-7FB8F1690B31}">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1484,11 +1578,235 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC2FF8B-29BF-47E0-ADCC-4A2C1610F91A}">
+  <dimension ref="B1:B55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="14"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="14"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB12EB-8938-425D-8506-45E68A7C7B29}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1610,7 +1928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFC21A4-1B28-445A-87F1-05947E81457C}">
   <dimension ref="A1:A61"/>
   <sheetViews>
